--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1167.9947</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3216.77195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>276.75792</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.16217</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91.36606</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2411.07599</v>
-      </c>
-      <c r="H2" t="n">
-        <v>487.58961</v>
-      </c>
-      <c r="I2" t="n">
-        <v>827.51937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>172.78503</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363.65669</v>
-      </c>
-      <c r="L2" t="n">
-        <v>33935.96739</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43.2556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>75.13178000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1670.66169</v>
-      </c>
-      <c r="P2" t="n">
-        <v>918.89261</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>126.87184</v>
-      </c>
-      <c r="R2" t="n">
-        <v>289.04571</v>
-      </c>
-      <c r="S2" t="n">
-        <v>129.2875</v>
-      </c>
-      <c r="T2" t="n">
-        <v>180.67403</v>
-      </c>
-      <c r="U2" t="n">
-        <v>356.97298</v>
-      </c>
-      <c r="V2" t="n">
-        <v>635.07658</v>
-      </c>
-      <c r="W2" t="n">
-        <v>133.53491</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1131.56553</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2921.47578</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2480.99073</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1664.20197</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>194.70098</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1135.80714</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>786.24488</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1776.20387</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>185.27119</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>584.33663</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>490.76674</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1349.37068</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>162.39894</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>402.24038</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>858.0091</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>895.4854</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2909.34619</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>57.18523</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1153.094</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3670.31938</v>
-      </c>
-      <c r="D3" t="n">
-        <v>331.53515</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.15875</v>
-      </c>
-      <c r="F3" t="n">
-        <v>114.48035</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2534.8322</v>
-      </c>
-      <c r="H3" t="n">
-        <v>452.45041</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000.6843</v>
-      </c>
-      <c r="J3" t="n">
-        <v>214.23142</v>
-      </c>
-      <c r="K3" t="n">
-        <v>416.84837</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37602.82709</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52.32875</v>
-      </c>
-      <c r="N3" t="n">
-        <v>71.12457000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1747.54707</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1042.86675</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>132.85561</v>
-      </c>
-      <c r="R3" t="n">
-        <v>335.56672</v>
-      </c>
-      <c r="S3" t="n">
-        <v>141.23992</v>
-      </c>
-      <c r="T3" t="n">
-        <v>177.63577</v>
-      </c>
-      <c r="U3" t="n">
-        <v>403.36744</v>
-      </c>
-      <c r="V3" t="n">
-        <v>984.1321799999999</v>
-      </c>
-      <c r="W3" t="n">
-        <v>131.23968</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1250.33088</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3321.74358</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3177.06809</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1900.3352</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>210.93857</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1192.62157</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>801.49771</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1772.06667</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>207.19997</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>756.26109</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>558.41216</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1477.36286</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>173.94772</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>458.26784</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>882.44828</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>933.56873</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2987.84909</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>72.8518</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1251.76349</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4175.64674</v>
-      </c>
-      <c r="D4" t="n">
-        <v>346.07634</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="F4" t="n">
-        <v>121.89118</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2761.10239</v>
-      </c>
-      <c r="H4" t="n">
-        <v>461.97324</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1125.27674</v>
-      </c>
-      <c r="J4" t="n">
-        <v>218.18341</v>
-      </c>
-      <c r="K4" t="n">
-        <v>486.54618</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40870.31623</v>
-      </c>
-      <c r="M4" t="n">
-        <v>50.34535</v>
-      </c>
-      <c r="N4" t="n">
-        <v>90.92268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1887.34433</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1122.14211</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>143.11363</v>
-      </c>
-      <c r="R4" t="n">
-        <v>347.43091</v>
-      </c>
-      <c r="S4" t="n">
-        <v>150.13429</v>
-      </c>
-      <c r="T4" t="n">
-        <v>183.32199</v>
-      </c>
-      <c r="U4" t="n">
-        <v>396.35264</v>
-      </c>
-      <c r="V4" t="n">
-        <v>991.45153</v>
-      </c>
-      <c r="W4" t="n">
-        <v>159.89296</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1459.07745</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3581.25064</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3649.8008</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2032.36582</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>212.06719</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1145.47384</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>878.10774</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1801.98714</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>238.14117</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>828.3116199999999</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>597.7931599999999</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1567.037</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>184.22781</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>534.14745</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>968.17174</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1002.28356</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3266.81475</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>82.73318</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
